--- a/similarities/split_global/harmonic_similarity_timestamps_381.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_381.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:02.980000', '0:00:08.800000')]</t>
+          <t>('0:01:38.700000', '0:01:58.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+          <t>('0:00:30.060000', '0:00:43.780000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=30.06</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>['G:min', 'F', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
+          <t>['G:min/A#', 'F:maj/C', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:30.424512', '0:00:35.962471')]</t>
+          <t>('0:00:03.560725', '0:00:10.073922')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:07.431000', '0:02:12.656000')]</t>
+          <t>('0:01:38.720000', '0:01:44.600000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=30.424512']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=3.560725</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=98.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['G#/C', 'D#', 'G#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min'], ['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.160000', '0:00:13.840000'), ('0:00:57.840000', '0:01:02.900000')]</t>
+          <t>('0:02:18.020000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000'), ('0:00:31.138000', '0:00:34.424000')]</t>
+          <t>('0:03:37.493000', '0:03:42.528000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=57.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['F#:min', 'G#:min/B', 'C#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['G:min', 'A:min', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:18.820000', '0:00:46.240000')]</t>
+          <t>('0:00:04.740000', '0:00:10.480000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:18.240000')]</t>
+          <t>('0:01:35.904784', '0:01:44.577437')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=18.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=4.74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=11.16']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=95.904784</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>isophonics_0</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Db', 'Gb', 'Ab', 'Db']]</t>
+          <t>['E', 'A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:16.004920')]</t>
+          <t>('0:00:47.176000', '0:00:54.592000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:43.934000', '0:00:49.319000')]</t>
+          <t>('0:00:04.691165', '0:00:28.079297')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=4.691165</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:30.380000')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
+          <t>('0:00:17.965212', '0:00:29.679679')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=59.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=17.965212</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A#:7', 'D#:min', 'G#:min/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:25.260000', '0:00:34.280000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
+          <t>['D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:23.840000', '0:00:31.400000')]</t>
+          <t>('0:00:01.014823', '0:00:13.657911')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:13.300000', '0:00:19.020000')]</t>
+          <t>('0:02:03.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=13.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:26.040000', '0:00:59.820000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:38.841000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.599751', '0:00:06.705328')]</t>
+          <t>('0:00:01.302038', '0:00:08.110136')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:04:21.828000', '0:04:35.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>jaah_22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['Eb:maj6', 'F:min7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['G:min7', 'C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:48.800000', '0:01:00.040000')]</t>
+          <t>('0:00:18.960000', '0:00:24.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:03.740000')]</t>
+          <t>('0:00:06.740000', '0:00:09.180000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=48.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=18.96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=6.74</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:7/C#', 'D:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:56.943000', '0:01:03.992000')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:20.560000')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=56.943']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=14.3']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>['A:7', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:06.506000', '0:02:17.555000')]</t>
+          <t>('0:00:59.620000', '0:01:04.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+          <t>('0:00:38.689000', '0:00:45.633000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=126.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=59.62</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
